--- a/biology/Zoologie/Barbatia_barbata/Barbatia_barbata.xlsx
+++ b/biology/Zoologie/Barbatia_barbata/Barbatia_barbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arche barbue
-Barbatia barbata ou Arche barbue est une espèce de mollusques bivalves de la famille des Arcidae[1].
+Barbatia barbata ou Arche barbue est une espèce de mollusques bivalves de la famille des Arcidae.
 </t>
         </is>
       </c>
@@ -512,14 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Barbatia barbata est décrite par Carl Linnaeus en 1758.
-Synonymes
-Arca bonnaniana Risso, 1826
-Arca cylindrica Wood, 182
-Arca magellanica Bruguière, 1789
-Barbatia eximia Dunker, 1866</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Barbatia barbata est décrite par Carl Linnaeus en 1758.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arca bonnaniana Risso, 1826
+Arca cylindrica Wood, 182
+Arca magellanica Bruguière, 1789
+Barbatia eximia Dunker, 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barbatia_barbata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbatia_barbata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barbatia barbata var elongata
